--- a/data/trdplan_auto/trdplan_mxz-20200820.xlsx
+++ b/data/trdplan_auto/trdplan_mxz-20200820.xlsx
@@ -18,14 +18,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="410">
   <si>
     <t>产品代码</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>7072</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>7121</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>8111</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
     <t>918</t>
   </si>
   <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
     <t>证券自动交易</t>
   </si>
   <si>
@@ -38,28 +137,455 @@
     <t>产品名称</t>
   </si>
   <si>
+    <t>鸣石量化投资2期</t>
+  </si>
+  <si>
+    <t>量化10</t>
+  </si>
+  <si>
+    <t>鸣石傲华2号</t>
+  </si>
+  <si>
+    <t>鸣石傲华2号-2期</t>
+  </si>
+  <si>
+    <t>鸣石傲华5号</t>
+  </si>
+  <si>
+    <t>鸣石傲华7号</t>
+  </si>
+  <si>
+    <t>鸣石傲华7号B</t>
+  </si>
+  <si>
+    <t>鸣石傲华8号</t>
+  </si>
+  <si>
+    <t>鸣石傲华11号</t>
+  </si>
+  <si>
+    <t>鸣石傲华12号1期</t>
+  </si>
+  <si>
+    <t>鸣石傲华15号</t>
+  </si>
+  <si>
+    <t>宽墨4号</t>
+  </si>
+  <si>
+    <t>宽墨5号</t>
+  </si>
+  <si>
+    <t>宽墨7号</t>
+  </si>
+  <si>
+    <t>宽墨8号</t>
+  </si>
+  <si>
+    <t>宽墨9号</t>
+  </si>
+  <si>
+    <t>宽墨11号</t>
+  </si>
+  <si>
+    <t>鸣石宽墨13号</t>
+  </si>
+  <si>
+    <t>鸣石宽墨16号</t>
+  </si>
+  <si>
+    <t>量化5号</t>
+  </si>
+  <si>
+    <t>量化6号</t>
+  </si>
+  <si>
+    <t>量化8号</t>
+  </si>
+  <si>
+    <t>量化13号</t>
+  </si>
+  <si>
+    <t>量化14号</t>
+  </si>
+  <si>
+    <t>量化17号</t>
+  </si>
+  <si>
     <t>量化18号</t>
   </si>
   <si>
+    <t>量化19号</t>
+  </si>
+  <si>
+    <t>量化22号</t>
+  </si>
+  <si>
+    <t>量化29号</t>
+  </si>
+  <si>
+    <t>量化30号</t>
+  </si>
+  <si>
+    <t>锐驰1号</t>
+  </si>
+  <si>
+    <t>锐驰3号</t>
+  </si>
+  <si>
+    <t>锐驰7号</t>
+  </si>
+  <si>
+    <t>锐驰11号</t>
+  </si>
+  <si>
     <t>总规模</t>
   </si>
   <si>
+    <t>3961</t>
+  </si>
+  <si>
+    <t>13516</t>
+  </si>
+  <si>
+    <t>2897</t>
+  </si>
+  <si>
+    <t>4058</t>
+  </si>
+  <si>
+    <t>5910</t>
+  </si>
+  <si>
+    <t>9908</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>2387</t>
+  </si>
+  <si>
+    <t>4507</t>
+  </si>
+  <si>
+    <t>13093</t>
+  </si>
+  <si>
+    <t>22471</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>13693</t>
+  </si>
+  <si>
+    <t>18581</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>6356</t>
+  </si>
+  <si>
+    <t>10508</t>
+  </si>
+  <si>
+    <t>5059</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>4939</t>
+  </si>
+  <si>
+    <t>2612</t>
+  </si>
+  <si>
+    <t>26735</t>
+  </si>
+  <si>
+    <t>3276</t>
+  </si>
+  <si>
+    <t>7627</t>
+  </si>
+  <si>
     <t>45112</t>
   </si>
   <si>
+    <t>24512</t>
+  </si>
+  <si>
+    <t>10377</t>
+  </si>
+  <si>
+    <t>8702</t>
+  </si>
+  <si>
+    <t>11396</t>
+  </si>
+  <si>
+    <t>10386</t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>4909</t>
+  </si>
+  <si>
+    <t>18519</t>
+  </si>
+  <si>
     <t>最新净值</t>
   </si>
   <si>
+    <t>2.388</t>
+  </si>
+  <si>
+    <t>1.1807</t>
+  </si>
+  <si>
+    <t>1.579</t>
+  </si>
+  <si>
+    <t>1.478</t>
+  </si>
+  <si>
+    <t>1.524</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.082</t>
+  </si>
+  <si>
+    <t>1.522</t>
+  </si>
+  <si>
+    <t>1.314</t>
+  </si>
+  <si>
+    <t>1.2931</t>
+  </si>
+  <si>
+    <t>1.1626</t>
+  </si>
+  <si>
+    <t>1.1536</t>
+  </si>
+  <si>
+    <t>2.0146</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>1.1336</t>
+  </si>
+  <si>
+    <t>1.0504</t>
+  </si>
+  <si>
+    <t>1.0676</t>
+  </si>
+  <si>
+    <t>1.4628</t>
+  </si>
+  <si>
+    <t>1.1554</t>
+  </si>
+  <si>
+    <t>1.032</t>
+  </si>
+  <si>
+    <t>1.254</t>
+  </si>
+  <si>
+    <t>1.752</t>
+  </si>
+  <si>
+    <t>1.0496</t>
+  </si>
+  <si>
+    <t>1.2549</t>
+  </si>
+  <si>
     <t>1.3164</t>
   </si>
   <si>
+    <t>1.083</t>
+  </si>
+  <si>
+    <t>1.227</t>
+  </si>
+  <si>
+    <t>1.0887</t>
+  </si>
+  <si>
+    <t>1.086</t>
+  </si>
+  <si>
+    <t>1.1022</t>
+  </si>
+  <si>
+    <t>1.1345</t>
+  </si>
+  <si>
+    <t>1.1748</t>
+  </si>
+  <si>
+    <t>1.0202</t>
+  </si>
+  <si>
     <t>信号</t>
   </si>
   <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>中频935</t>
+  </si>
+  <si>
+    <t>1030+1430</t>
+  </si>
+  <si>
+    <t>日内1400</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>期货</t>
+  </si>
+  <si>
     <t>日内1400_v2</t>
   </si>
   <si>
     <t>今资金划转计划</t>
+  </si>
+  <si>
+    <t>期转银125万
+证（信用）转银245万
+银转证（普通）300万</t>
+  </si>
+  <si>
+    <t>期转银205万
+银转证205万</t>
+  </si>
+  <si>
+    <t>期转银35万
+银转证25万</t>
+  </si>
+  <si>
+    <t>期转银195万
+银转证170万</t>
+  </si>
+  <si>
+    <t>期转银70万
+银转证45万</t>
+  </si>
+  <si>
+    <t>期转银125万
+证（中信建投信用）转银全部
+银转证（普通）105万</t>
+  </si>
+  <si>
+    <t>期转银190万
+银转证185万</t>
+  </si>
+  <si>
+    <t>期转银30万
+银转证35万</t>
+  </si>
+  <si>
+    <t>期转银100万
+银转证80万</t>
+  </si>
+  <si>
+    <t>期转银60万
+银转证45万</t>
+  </si>
+  <si>
+    <t>期转银20万
+银转证15万</t>
+  </si>
+  <si>
+    <t>期（兴业）转银210万
+期（招商）转银30万
+证（五矿普通）转银70万
+银转证（招商信用）35万
+银转证（招商普通）270万</t>
+  </si>
+  <si>
+    <t>期转银50万
+银转证30万</t>
+  </si>
+  <si>
+    <t>银转期525万
+银转证3035万</t>
+  </si>
+  <si>
+    <t>期转银25万
+证（信用）转银2220万
+银转证（普通）2240万</t>
+  </si>
+  <si>
+    <t>期转银145万
+证（普通）转银550万
+银转证（信用）705万</t>
+  </si>
+  <si>
+    <t>期转银40万
+证（普通）转银615万
+银转证（信用）660万</t>
+  </si>
+  <si>
+    <t>期转银210万
+银转证190万</t>
+  </si>
+  <si>
+    <t>期转银10万
+银转证（普通）20万</t>
+  </si>
+  <si>
+    <t>期转银65万
+证（信用）转银310万
+银转证（普通）350万</t>
+  </si>
+  <si>
+    <t>期转银5万
+银转证5万</t>
+  </si>
+  <si>
+    <t>期转银1030万
+银转证（普通）1025万</t>
+  </si>
+  <si>
+    <t>期转银55万
+银转证55万</t>
+  </si>
+  <si>
+    <t>期转银195万
+证（普通）转银65万
+银转证（信用）170万</t>
   </si>
   <si>
     <t>证（华泰信用）转银3855万
@@ -69,6 +595,42 @@
 银转证（申银万国）1020万</t>
   </si>
   <si>
+    <t>期转银215万
+证（信用）转银4245万
+银转证（普通）2400万</t>
+  </si>
+  <si>
+    <t>期转银10万
+证（国泰君安信用）转银915万
+银转证（中信）140万
+银转证（国泰君安普通）685万</t>
+  </si>
+  <si>
+    <t>期转银180万
+银转证190万</t>
+  </si>
+  <si>
+    <t>期转银170万
+银转证45万</t>
+  </si>
+  <si>
+    <t>期转银135万
+银转证135万</t>
+  </si>
+  <si>
+    <t>期转银60万
+银转证（信用）35万
+银转证（普通）15万</t>
+  </si>
+  <si>
+    <t>证转银35万
+银转期30万</t>
+  </si>
+  <si>
+    <t>期转银1450万
+银转证（海通）1440万</t>
+  </si>
+  <si>
     <t>今资金划转执行</t>
   </si>
   <si>
@@ -76,6 +638,101 @@
   </si>
   <si>
     <t>今日组合交易计划</t>
+  </si>
+  <si>
+    <t>信用户目标持仓3050万，2手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>平5手IC空头，
+目标持仓10400万，78手IC空头（开5手IC空头）</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+目标持仓2050万，6手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓2850万，8手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+目标持仓4150万，12手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>普通户目标持仓8400万，10手IC多头（开1手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓2950万</t>
+  </si>
+  <si>
+    <t>目标持仓1850万</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+目标持仓4000万，3手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>平5手IC多头，
+目标持仓11650万，9手IC多头（开4手IC多头）</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+目标持仓20000万，16手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓1100万</t>
+  </si>
+  <si>
+    <t>兴业期货平1手IC空头，，
+五矿证券目标持仓550万，
+招商证券普通户目标持仓0万，
+招商证券信用户买货基950万，目标持仓9950万，72手IC空头（兴业期货平4手IC空头，招商期货开4手IC空头）</t>
+  </si>
+  <si>
+    <t>平2手IC多头，
+目标持仓16550万</t>
+  </si>
+  <si>
+    <t>卖货基1650万，目标持仓4300万，32手IC空头（开32手IC空头）</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+普通户买货基2000万，目标持仓0万，
+信用户卖货基800万，目标持仓4900万，4手IC多头（开3手IC多头）</t>
+  </si>
+  <si>
+    <t>开1手IC空头，
+普通户目标持仓0万，
+信用户目标持仓8100万，61手IC空头（开2手IC空头）</t>
+  </si>
+  <si>
+    <t>普通户买货基750万，目标持仓0万，
+信用户卖货基900万，目标持仓3900万，7手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓0万，1手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>平1手IC空头，
+普通户目标持仓1950万，15手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>普通户买货基300万，目标持仓0万，
+信用户目标持仓3800万</t>
+  </si>
+  <si>
+    <t>平1手IC空头，
+目标持仓2000万</t>
+  </si>
+  <si>
+    <t>开4手IC空头，
+普通户目标持仓53900万，39手IC空头（平13手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓2500万</t>
+  </si>
+  <si>
+    <t>普通户目标持仓0万，
+信用户卖货基200万，目标持仓5850万</t>
   </si>
   <si>
     <t>平3手IC空头，
@@ -85,31 +742,257 @@
 华泰证券信用户目标持仓0万，261手IC空头（开28手IC空头）</t>
   </si>
   <si>
+    <t>平1手IC空头，
+普通户买货基2200万，目标持仓0万，
+信用户目标持仓17550万，37手IC空头（平7手IC空头）</t>
+  </si>
+  <si>
+    <t>中信证券目标持仓4000万，
+国泰君安信用户卖货基450万，目标持仓4000万，27手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>平2手IC多头，
+目标持仓8750万，1手IC多头（开1手IC多头）</t>
+  </si>
+  <si>
+    <t>开1手IC空头，
+目标持仓9250万，44手IC空头（平2手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓8000万</t>
+  </si>
+  <si>
+    <t>普通户目标持仓0万，
+信用户目标持仓1650万</t>
+  </si>
+  <si>
+    <t>目标持仓3800万</t>
+  </si>
+  <si>
+    <t>平2手IC空头，
+海通证券买货基1650万，目标持仓7150万，
+中信建投目标持仓0万，53手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
     <t>今日组合交易执行</t>
   </si>
   <si>
     <t>明日组合交易计划</t>
   </si>
   <si>
+    <t xml:space="preserve">申购3690万 按照20200818净值 20200820划款.
+赎回1220000.0份（约计125万） 按照20200818净值 20200821划款.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">申购100万 按照20200819净值 20200821划款.
+赎回16810909.25份（约计1837万） 按照20200819净值 20200821划款.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">申购1000万 按照20200818净值 20200824划款.
+</t>
+  </si>
+  <si>
     <t>注意事项</t>
   </si>
   <si>
     <t>超额计提</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>当前股票持仓</t>
+  </si>
+  <si>
+    <t>申银万国信用户2950万</t>
+  </si>
+  <si>
+    <t>五矿普通户9750万</t>
+  </si>
+  <si>
+    <t>银河普通户2000万</t>
+  </si>
+  <si>
+    <t>银河普通户2800万</t>
+  </si>
+  <si>
+    <t>银河普通户4100万</t>
+  </si>
+  <si>
+    <t>中信建投普通户8650万</t>
+  </si>
+  <si>
+    <t>银河普通户3050万</t>
+  </si>
+  <si>
+    <t>银河普通户1850万</t>
+  </si>
+  <si>
+    <t>银河普通户3950万</t>
+  </si>
+  <si>
+    <t>银河普通户12250万</t>
+  </si>
+  <si>
+    <t>中信建投普通户20000万</t>
+  </si>
+  <si>
+    <t>国信普通户1050万</t>
+  </si>
+  <si>
+    <t>五矿普通户600万
+招商信用户9900万</t>
+  </si>
+  <si>
+    <t>华泰普通户16650万</t>
+  </si>
+  <si>
+    <t>申银万国信用户5300万</t>
+  </si>
+  <si>
+    <t>华泰信用户7850万</t>
+  </si>
+  <si>
+    <t>华泰普通户1350万
+华泰信用户2350万</t>
+  </si>
+  <si>
+    <t>华泰普通户1950万</t>
+  </si>
+  <si>
+    <t>国泰君安信用户3800万</t>
+  </si>
+  <si>
+    <t>海通普通户2000万</t>
+  </si>
+  <si>
+    <t>华泰普通户55600万</t>
+  </si>
+  <si>
+    <t>华泰普通户2500万</t>
+  </si>
+  <si>
+    <t>中信建投信用户5900万</t>
   </si>
   <si>
     <t>海通普通户24750万
 申银万国普通户6350万</t>
   </si>
   <si>
+    <t>申银万国信用户18500万</t>
+  </si>
+  <si>
+    <t>中信普通户4000万
+国泰君安信用户3950万</t>
+  </si>
+  <si>
+    <t>中信普通户8800万</t>
+  </si>
+  <si>
+    <t>华福普通户9550万</t>
+  </si>
+  <si>
+    <t>安信普通户8000万</t>
+  </si>
+  <si>
+    <t>招商信用户1650万</t>
+  </si>
+  <si>
+    <t>东北普通户3700万</t>
+  </si>
+  <si>
+    <t>海通普通户6950万</t>
+  </si>
+  <si>
     <t>当前期指持仓</t>
   </si>
   <si>
+    <t>1手IC空头</t>
+  </si>
+  <si>
+    <t>78手IC空头</t>
+  </si>
+  <si>
+    <t>6手IC多头</t>
+  </si>
+  <si>
+    <t>9手IC多头</t>
+  </si>
+  <si>
+    <t>12手IC多头</t>
+  </si>
+  <si>
+    <t>14手IC空头</t>
+  </si>
+  <si>
+    <t>3手IC多头</t>
+  </si>
+  <si>
+    <t>10手IC多头</t>
+  </si>
+  <si>
+    <t>16手IC多头</t>
+  </si>
+  <si>
+    <t>8手IC空头</t>
+  </si>
+  <si>
+    <t>73手IC空头</t>
+  </si>
+  <si>
+    <t>15手IC多头</t>
+  </si>
+  <si>
+    <t>58手IC空头</t>
+  </si>
+  <si>
+    <t>6手IC空头</t>
+  </si>
+  <si>
+    <t>2手IC多头</t>
+  </si>
+  <si>
+    <t>15手IC空头</t>
+  </si>
+  <si>
+    <t>9手IC空头</t>
+  </si>
+  <si>
+    <t>16手IC空头</t>
+  </si>
+  <si>
+    <t>48手IC空头</t>
+  </si>
+  <si>
+    <t>19手IC空头</t>
+  </si>
+  <si>
+    <t>5手IC空头</t>
+  </si>
+  <si>
     <t>236手IC空头</t>
   </si>
   <si>
+    <t>45手IC空头</t>
+  </si>
+  <si>
+    <t>26手IC空头</t>
+  </si>
+  <si>
+    <t>60手IC空头</t>
+  </si>
+  <si>
+    <t>12手IC空头</t>
+  </si>
+  <si>
+    <t>28手IC空头</t>
+  </si>
+  <si>
+    <t>54手IC空头</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -122,6 +1005,12 @@
     <t>AcctIDByMXZ</t>
   </si>
   <si>
+    <t>920_c_huat_1372</t>
+  </si>
+  <si>
+    <t>1206_c_huat_0065</t>
+  </si>
+  <si>
     <t>2_m_sw_3455</t>
   </si>
   <si>
@@ -134,15 +1023,15 @@
     <t>7022_c_yh_2659</t>
   </si>
   <si>
+    <t>705_c_yh_4811</t>
+  </si>
+  <si>
+    <t>707_c_zxjt_9491</t>
+  </si>
+  <si>
     <t>7072_c_yh_6508</t>
   </si>
   <si>
-    <t>705_c_yh_4811</t>
-  </si>
-  <si>
-    <t>707_c_zxjt_9491</t>
-  </si>
-  <si>
     <t>708_c_yh_3585</t>
   </si>
   <si>
@@ -218,7 +1107,22 @@
     <t>917_m_zxjt_3156</t>
   </si>
   <si>
-    <t>920_c_huat_1372</t>
+    <t>918_c_hait_6618</t>
+  </si>
+  <si>
+    <t>918_c_huat_0118</t>
+  </si>
+  <si>
+    <t>918_c_sw_3489</t>
+  </si>
+  <si>
+    <t>918_m_huat_0118</t>
+  </si>
+  <si>
+    <t>919_c_sw_2666</t>
+  </si>
+  <si>
+    <t>919_m_sw_3523</t>
   </si>
   <si>
     <t>922_c_zx_0322</t>
@@ -242,9 +1146,6 @@
     <t>1203_m_zhaos_2641</t>
   </si>
   <si>
-    <t>1206_c_huat_0065</t>
-  </si>
-  <si>
     <t>1207_c_db_3756</t>
   </si>
   <si>
@@ -254,135 +1155,21 @@
     <t>1211_c_zxjt_5509</t>
   </si>
   <si>
-    <t>919_c_sw_2666</t>
-  </si>
-  <si>
-    <t>919_m_sw_3523</t>
-  </si>
-  <si>
-    <t>918_c_hait_6618</t>
-  </si>
-  <si>
-    <t>918_c_huat_0118</t>
-  </si>
-  <si>
-    <t>918_c_sw_3489</t>
-  </si>
-  <si>
-    <t>918_m_huat_0118</t>
-  </si>
-  <si>
     <t>PrdCode</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>7022</t>
-  </si>
-  <si>
-    <t>7072</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>7121</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>8111</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
     <t>920</t>
   </si>
   <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>1203</t>
-  </si>
-  <si>
     <t>1206</t>
   </si>
   <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
     <t>AcctIDByXuJie4Trd</t>
   </si>
   <si>
+    <t>120601</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
@@ -404,30 +1191,33 @@
     <t>91701</t>
   </si>
   <si>
+    <t>91802</t>
+  </si>
+  <si>
+    <t>91803</t>
+  </si>
+  <si>
     <t>92201</t>
   </si>
   <si>
     <t>120301</t>
   </si>
   <si>
-    <t>120601</t>
-  </si>
-  <si>
     <t>120701</t>
   </si>
   <si>
     <t>121102</t>
   </si>
   <si>
-    <t>91802</t>
-  </si>
-  <si>
-    <t>91803</t>
-  </si>
-  <si>
     <t>AcctIDByXuXiaoQiang4Trd</t>
   </si>
   <si>
+    <t>mslh20ht1372</t>
+  </si>
+  <si>
+    <t>msrc6ht0065</t>
+  </si>
+  <si>
     <t>mslh2sw3455i</t>
   </si>
   <si>
@@ -440,15 +1230,15 @@
     <t>msah2qyh2659</t>
   </si>
   <si>
+    <t>msah5yh4811</t>
+  </si>
+  <si>
+    <t>msah7zxjt9491</t>
+  </si>
+  <si>
     <t>msah7byh6508</t>
   </si>
   <si>
-    <t>msah5yh4811</t>
-  </si>
-  <si>
-    <t>msah7zxjt9491</t>
-  </si>
-  <si>
     <t>msah8yh3585</t>
   </si>
   <si>
@@ -503,7 +1293,16 @@
     <t>mslh17zxjt3156i</t>
   </si>
   <si>
-    <t>mslh20ht1372</t>
+    <t>mslh18hait6618</t>
+  </si>
+  <si>
+    <t>mslh18sw3489</t>
+  </si>
+  <si>
+    <t>mslh18ht0666i</t>
+  </si>
+  <si>
+    <t>mslh19sw3523i</t>
   </si>
   <si>
     <t>mslh22zx0322</t>
@@ -527,9 +1326,6 @@
     <t>msrc3zs2641i</t>
   </si>
   <si>
-    <t>msrc6ht0065</t>
-  </si>
-  <si>
     <t>msrc7db3756</t>
   </si>
   <si>
@@ -537,18 +1333,6 @@
   </si>
   <si>
     <t>msrc11zxjt5509</t>
-  </si>
-  <si>
-    <t>mslh19sw3523i</t>
-  </si>
-  <si>
-    <t>mslh18hait6618</t>
-  </si>
-  <si>
-    <t>mslh18sw3489</t>
-  </si>
-  <si>
-    <t>mslh18ht0666i</t>
   </si>
   <si>
     <t>TgtCpsAmt</t>
@@ -972,55 +1756,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1">
@@ -1028,74 +1812,1202 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="80" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="80" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="80" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="80" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="80" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="80" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="80" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="80" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="80" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="80" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="80" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="80" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="80" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="80" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="80" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="80" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="80" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="80" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="80" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="80" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="80" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="80" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="80" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="80" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="80" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="80" customHeight="1"/>
-    <row r="4" spans="1:18" ht="80" customHeight="1"/>
-    <row r="5" spans="1:18" ht="80" customHeight="1"/>
-    <row r="6" spans="1:18" ht="80" customHeight="1"/>
-    <row r="7" spans="1:18" ht="80" customHeight="1"/>
-    <row r="8" spans="1:18" ht="80" customHeight="1"/>
-    <row r="9" spans="1:18" ht="80" customHeight="1"/>
-    <row r="10" spans="1:18" ht="80" customHeight="1"/>
-    <row r="11" spans="1:18" ht="80" customHeight="1"/>
-    <row r="12" spans="1:18" ht="80" customHeight="1"/>
-    <row r="13" spans="1:18" ht="80" customHeight="1"/>
-    <row r="14" spans="1:18" ht="80" customHeight="1"/>
-    <row r="15" spans="1:18" ht="80" customHeight="1"/>
-    <row r="16" spans="1:18" ht="80" customHeight="1"/>
-    <row r="17" ht="80" customHeight="1"/>
-    <row r="18" ht="80" customHeight="1"/>
-    <row r="19" ht="80" customHeight="1"/>
-    <row r="20" ht="80" customHeight="1"/>
-    <row r="21" ht="80" customHeight="1"/>
-    <row r="22" ht="80" customHeight="1"/>
-    <row r="23" ht="80" customHeight="1"/>
-    <row r="24" ht="80" customHeight="1"/>
-    <row r="25" ht="80" customHeight="1"/>
-    <row r="26" ht="80" customHeight="1"/>
-    <row r="27" ht="80" customHeight="1"/>
-    <row r="28" ht="80" customHeight="1"/>
-    <row r="29" ht="80" customHeight="1"/>
-    <row r="30" ht="80" customHeight="1"/>
-    <row r="31" ht="80" customHeight="1"/>
-    <row r="32" ht="80" customHeight="1"/>
-    <row r="33" ht="80" customHeight="1"/>
-    <row r="34" ht="80" customHeight="1"/>
-    <row r="35" ht="80" customHeight="1"/>
-    <row r="36" ht="80" customHeight="1"/>
-    <row r="37" ht="80" customHeight="1"/>
-    <row r="38" ht="80" customHeight="1"/>
-    <row r="39" ht="80" customHeight="1"/>
-    <row r="40" ht="80" customHeight="1"/>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="80" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="80" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="80" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="80" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="80" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="80" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="80" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="80" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="80" customHeight="1"/>
+    <row r="37" spans="1:17" ht="80" customHeight="1"/>
+    <row r="38" spans="1:17" ht="80" customHeight="1"/>
+    <row r="39" spans="1:17" ht="80" customHeight="1"/>
+    <row r="40" spans="1:17" ht="80" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:R1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,455 +3033,461 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="F2">
-        <v>30498469.5969589</v>
+        <v>21483.8162</v>
       </c>
       <c r="G2">
-        <v>29439946.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="F3">
-        <v>104070009.4742</v>
+        <v>8.91</v>
       </c>
       <c r="G3">
-        <v>97682429.32000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="F4">
-        <v>20279018.081</v>
+        <v>30498469.5969589</v>
       </c>
       <c r="G4">
-        <v>19915040.21</v>
+        <v>29439946.46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="F5">
-        <v>28407170.043</v>
+        <v>104070009.4742</v>
       </c>
       <c r="G5">
-        <v>27894051.51</v>
+        <v>97682429.32000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="F6">
-        <v>29738550.492</v>
+        <v>20279018.081</v>
       </c>
       <c r="G6">
-        <v>30342068.79</v>
+        <v>19915040.21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="F7">
-        <v>41368847.807</v>
+        <v>28407170.043</v>
       </c>
       <c r="G7">
-        <v>41131821.48</v>
+        <v>27894051.51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="F8">
-        <v>83771247.86044763</v>
+        <v>41368847.807</v>
       </c>
       <c r="G8">
-        <v>86686327.61000001</v>
+        <v>41131821.48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>374</v>
       </c>
       <c r="F9">
-        <v>18378589.4061</v>
+        <v>83771247.86044763</v>
       </c>
       <c r="G9">
-        <v>18515524.13</v>
+        <v>86686327.61000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>375</v>
       </c>
       <c r="F10">
-        <v>40154756.91084</v>
+        <v>29738550.492</v>
       </c>
       <c r="G10">
-        <v>39360033.18</v>
+        <v>30342068.79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="F11">
-        <v>116662162.901427</v>
+        <v>18378589.4061</v>
       </c>
       <c r="G11">
-        <v>122481010.67</v>
+        <v>18515524.13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="F12">
-        <v>200216328.73803</v>
+        <v>40154756.91084</v>
       </c>
       <c r="G12">
-        <v>200216266.89</v>
+        <v>39360033.18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="F13">
-        <v>10825382.5911</v>
+        <v>116662162.901427</v>
       </c>
       <c r="G13">
-        <v>10355382.62</v>
+        <v>122481010.67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>379</v>
       </c>
       <c r="F14">
-        <v>5693358.4301286</v>
+        <v>200216328.73803</v>
       </c>
       <c r="G14">
-        <v>5980784.62</v>
+        <v>200216266.89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" t="s">
+        <v>380</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10825382.5911</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>10355382.62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="F16">
-        <v>99739205.09077141</v>
+        <v>5693358.4301286</v>
       </c>
       <c r="G16">
-        <v>99106391.56999999</v>
+        <v>5980784.62</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>165556526.21343</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>166350227.1800001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" t="s">
+        <v>382</v>
       </c>
       <c r="F18">
-        <v>42959517.3931</v>
+        <v>99739205.09077141</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>99106391.56999999</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>383</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>165556526.21343</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>166350227.1800001</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>48942273.7034</v>
+        <v>42959517.3931</v>
       </c>
       <c r="G20">
-        <v>52798647.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1580,122 +3498,122 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>384</v>
       </c>
       <c r="F22">
-        <v>80910483.33059999</v>
+        <v>48942273.7034</v>
       </c>
       <c r="G22">
-        <v>78359245.26000001</v>
+        <v>52798647.86</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>13725776.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="F24">
-        <v>38951121.9713</v>
+        <v>80910483.33059999</v>
       </c>
       <c r="G24">
-        <v>23592621.04</v>
+        <v>78359245.26000001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>386</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>13725776.5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="F26">
-        <v>19381802.5093</v>
+        <v>38951121.9713</v>
       </c>
       <c r="G26">
-        <v>19283698.2</v>
+        <v>23592621.04</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1706,154 +3624,148 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="F28">
-        <v>38027223.40186</v>
+        <v>19381802.5093</v>
       </c>
       <c r="G28">
-        <v>37809966.24</v>
+        <v>19283698.2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="F29">
-        <v>20110207.3942</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>19948873.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="F30">
-        <v>538889522.2555652</v>
+        <v>38027223.40186</v>
       </c>
       <c r="G30">
-        <v>555909088.5899999</v>
+        <v>37809966.24</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>390</v>
       </c>
       <c r="F31">
-        <v>25226567.741489</v>
+        <v>20110207.3942</v>
       </c>
       <c r="G31">
-        <v>25227853</v>
+        <v>19948873.5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" t="s">
+        <v>391</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>538889522.2555652</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>555909088.5899999</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>392</v>
       </c>
       <c r="F33">
-        <v>58730302.5230244</v>
+        <v>25226567.741489</v>
       </c>
       <c r="G33">
-        <v>58916047.06</v>
+        <v>25227853</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F34">
-        <v>21483.8162</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1861,134 +3773,122 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>393</v>
       </c>
       <c r="F35">
-        <v>39878972.42953756</v>
+        <v>58730302.5230244</v>
       </c>
       <c r="G35">
-        <v>39897246.57</v>
+        <v>58916047.06</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="F36">
-        <v>40022795.61201234</v>
+        <v>274590043.0563305</v>
       </c>
       <c r="G36">
-        <v>39579676.46</v>
+        <v>247341835.2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="F37">
-        <v>87534118.18459707</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>87933212.54999998</v>
+        <v>28779.93</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>395</v>
       </c>
       <c r="F38">
-        <v>92739976.09364013</v>
+        <v>72772440.2533855</v>
       </c>
       <c r="G38">
-        <v>95649867.92</v>
+        <v>63737021.28</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="F39">
-        <v>79971257.9743</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>79876019.51000002</v>
+        <v>30549</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1999,243 +3899,255 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>397</v>
       </c>
       <c r="F41">
-        <v>16418332.5152</v>
+        <v>175364075.854109</v>
       </c>
       <c r="G41">
-        <v>16480491.55</v>
+        <v>184761947.31</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="F42">
-        <v>8.91</v>
+        <v>39878972.42953756</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>39897246.57</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="F43">
-        <v>37801283.9127</v>
+        <v>40022795.61201234</v>
       </c>
       <c r="G43">
-        <v>36828911</v>
+        <v>39579676.46</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" t="s">
         <v>29</v>
       </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>400</v>
       </c>
       <c r="F44">
-        <v>71296837.41949999</v>
+        <v>87534118.18459707</v>
       </c>
       <c r="G44">
-        <v>69681869.94000001</v>
+        <v>87933212.54999998</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>92739976.09364013</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>95649867.92</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>402</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>79971257.9743</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>79876019.51000002</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>403</v>
       </c>
       <c r="F47">
-        <v>175364075.854109</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>184761947.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="F48">
-        <v>274590043.0563305</v>
+        <v>16418332.5152</v>
       </c>
       <c r="G48">
-        <v>247341835.2</v>
+        <v>16480491.55</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>364</v>
+      </c>
+      <c r="E49" t="s">
+        <v>405</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>37801283.9127</v>
       </c>
       <c r="G49">
-        <v>28779.93</v>
+        <v>36828911</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="F50">
-        <v>72772440.2533855</v>
+        <v>71296837.41949999</v>
       </c>
       <c r="G50">
-        <v>63737021.28</v>
+        <v>69681869.94000001</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>407</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>30549</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
